--- a/data/trans_media/IP29B_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/IP29B_2023-Habitat-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según el número de meses hasta los que recibieron lactancia materna exclusiva</t>
+          <t>Meses con lactancia materna exclusiva</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,24</t>
+          <t>6,94; 14,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 15,88</t>
+          <t>5,91; 14,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,13</t>
+          <t>7,27; 13,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,31</t>
+          <t>6,14; 10,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,43</t>
+          <t>6,49; 9,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,28</t>
+          <t>6,69; 9,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 9,98</t>
+          <t>7,28; 10,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,85</t>
+          <t>7,81; 10,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,9</t>
+          <t>7,91; 10,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,4</t>
+          <t>7,58; 11,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,38</t>
+          <t>7,57; 11,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,79</t>
+          <t>8,12; 10,84</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,15</t>
+          <t>7,58; 10,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,16</t>
+          <t>7,23; 10,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,55</t>
+          <t>7,68; 9,59</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 9,49</t>
+          <t>7,87; 9,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 9,62</t>
+          <t>8,07; 9,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 9,3</t>
+          <t>8,09; 9,28</t>
         </is>
       </c>
     </row>
